--- a/kv008horse.xlsx
+++ b/kv008horse.xlsx
@@ -699,7 +699,7 @@
       </c>
       <c r="Q2" s="13" t="n"/>
       <c r="R2" s="16" t="n">
-        <v>187.01</v>
+        <v>191.01</v>
       </c>
       <c r="W2" t="n"/>
       <c r="X2" t="n"/>
@@ -709,7 +709,7 @@
       </c>
       <c r="AO2" t="n"/>
       <c r="AP2" s="16" t="n">
-        <v>2068.12</v>
+        <v>2137.12</v>
       </c>
       <c r="AU2" t="n"/>
       <c r="AV2" t="n"/>
